--- a/Calculations/LT8490 boost-00.xlsx
+++ b/Calculations/LT8490 boost-00.xlsx
@@ -22,7 +22,59 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B112" authorId="0" shapeId="0">
+    <comment ref="A52" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Когда знаешь индуктивность</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B57" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+выбираем вручную из стандартных значений</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B121" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B113" authorId="0" shapeId="0">
+    <comment ref="B122" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B114" authorId="0" shapeId="0">
+    <comment ref="B123" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B156" authorId="0" shapeId="0">
+    <comment ref="B165" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="152">
   <si>
     <t>Расчет boost конвертера на LT8490</t>
   </si>
@@ -426,18 +478,6 @@
     <t>Input Feedback Resistor Network</t>
   </si>
   <si>
-    <t>Rfbin1=</t>
-  </si>
-  <si>
-    <t>Rdaci2=</t>
-  </si>
-  <si>
-    <t>Rfbin2=</t>
-  </si>
-  <si>
-    <t>Rdaci1=</t>
-  </si>
-  <si>
     <t>Cdaci=</t>
   </si>
   <si>
@@ -583,13 +623,31 @@
   </si>
   <si>
     <t>exclude</t>
+  </si>
+  <si>
+    <t>Пересчет Rsense (стр. 22 LT8705)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rsense = </t>
+  </si>
+  <si>
+    <t>Rfbin1(R20+R17)=</t>
+  </si>
+  <si>
+    <t>Rdaci2 (R24)=</t>
+  </si>
+  <si>
+    <t>Rfbin2(R29)=</t>
+  </si>
+  <si>
+    <t>Rdaci1(R25)=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +727,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -715,7 +782,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -730,6 +797,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -942,13 +1011,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>164235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -987,16 +1056,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>561975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1014,8 +1083,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3067050" y="9324975"/>
-          <a:ext cx="4495800" cy="952500"/>
+          <a:off x="3343275" y="12392025"/>
+          <a:ext cx="3657600" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1036,13 +1105,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>16341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1083,13 +1152,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>188787</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1130,13 +1199,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>46293</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1177,13 +1246,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>36458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1224,13 +1293,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>41306</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1271,13 +1340,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>189140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1318,13 +1387,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>31638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1365,13 +1434,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>179326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1412,13 +1481,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>132912</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1459,13 +1528,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>110350</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1506,13 +1575,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>152816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1553,13 +1622,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1600,13 +1669,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1647,13 +1716,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>94780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1694,13 +1763,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>103133</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1741,13 +1810,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>181232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>428051</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>37620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1779,13 +1848,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>24170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>352013</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>112948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1817,13 +1886,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>6927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>294699</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>75730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1855,13 +1924,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>570992</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>127954</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1919,6 +1988,120 @@
         <a:xfrm>
           <a:off x="7629525" y="8305800"/>
           <a:ext cx="2961905" cy="1314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>18465</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>31339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Рисунок 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="9458325"/>
+          <a:ext cx="3037890" cy="860014"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304071</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>58099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Рисунок 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="10325100"/>
+          <a:ext cx="3323496" cy="781999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>275436</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>28713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Рисунок 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6448425" y="17287875"/>
+          <a:ext cx="3923511" cy="2171838"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2498,10 +2681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,13 +2732,13 @@
         <v>94</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2570,7 +2753,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2614,7 +2797,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2670,7 +2853,7 @@
         <v>44</v>
       </c>
       <c r="B19">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>45</v>
@@ -2786,14 +2969,14 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="13">
         <f>2*B35*B7/((2*B12*B11)+(B40*B7))</f>
         <v>5.409523809523809</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2802,7 +2985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2814,7 +2997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>6</v>
       </c>
@@ -2822,527 +3005,574 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54">
+        <f>(B32/100*B7)/(B13*1000*B77*10^(-6))</f>
+        <v>0.97355807009272366</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56">
+        <f>(2*B35/1000*B7)/((2*B12*B11)+(B54*B7))*1000</f>
+        <v>6.4946847355207318</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="3">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="12"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>27</v>
       </c>
-      <c r="B55">
+      <c r="B64">
         <f>B7*B32/100  /  (2*B13*1000*(B35/B51/1000-B12*B11/B7))  * 10^6</f>
         <v>-1.3592977154177235</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="69" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>32</v>
       </c>
-      <c r="B62">
+      <c r="B71">
         <f>(B11-(B7*B11/(B11-B7))*B51/1000)/(0.08*B13*1000)  * 10^6</f>
         <v>2855.4212176231949</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C71" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68">
-        <v>33</v>
-      </c>
-      <c r="C68" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B73">
-        <f>(B18-B14)/B19</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="3">
+        <v>33</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82">
+        <f>(B18-B14)/B19</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>59</v>
       </c>
-      <c r="B78">
+      <c r="B87">
         <f>(B11/B7*B12)^2*B20/1000*1.5</f>
         <v>2.6244792699861144</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C87" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>52</v>
       </c>
-      <c r="B82">
+      <c r="B91">
         <f>B7*B12*B13*1000*20*10^(-9)</f>
         <v>6.3104800000000003E-2</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C91" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>55</v>
-      </c>
-      <c r="B89">
-        <f>B78+B82</f>
-        <v>2.6875840699861144</v>
-      </c>
-      <c r="C89" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98">
+        <f>B87+B91</f>
+        <v>2.6875840699861144</v>
+      </c>
+      <c r="C98" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>60</v>
       </c>
-      <c r="B93">
+      <c r="B102">
         <f>(B11-B7)*B11*B12^2*B20/1000*1.5 / B7^2</f>
         <v>2.1808172981551284</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C102" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>52</v>
       </c>
-      <c r="B96">
+      <c r="B105">
         <f>B11^2*B12*B13*1000*20^(-9)/B7</f>
         <v>2.1564744718309862E-4</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C105" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>62</v>
       </c>
-      <c r="B99">
-        <f>B93+B96</f>
+      <c r="B108">
+        <f>B102+B105</f>
         <v>2.1810329456023116</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C108" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>66</v>
       </c>
-      <c r="B107">
+      <c r="B116">
         <f>B11/B7*B12^2*1.5*B20/1000</f>
         <v>0.44366197183098599</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C116" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>67</v>
-      </c>
-      <c r="B112">
-        <f>B89*B19+B14</f>
-        <v>174.37920349930573</v>
-      </c>
-      <c r="C112" t="s">
-        <v>46</v>
-      </c>
-      <c r="D112" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>70</v>
-      </c>
-      <c r="B113">
-        <f>B99*B19+B14</f>
-        <v>149.05164728011559</v>
-      </c>
-      <c r="C113" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>71</v>
-      </c>
-      <c r="B114">
-        <f>B107*B19+B14</f>
-        <v>62.183098591549296</v>
-      </c>
-      <c r="C114" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B121">
-        <v>20</v>
+        <f>B98*B19+B14</f>
+        <v>107.18960174965287</v>
       </c>
       <c r="C121" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D121" t="s">
-        <v>88</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>70</v>
+      </c>
+      <c r="B122">
+        <f>B108*B19+B14</f>
+        <v>94.525823640057794</v>
+      </c>
+      <c r="C122" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>71</v>
+      </c>
+      <c r="B123">
+        <f>B116*B19+B14</f>
+        <v>51.091549295774648</v>
+      </c>
+      <c r="C123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>74</v>
+      </c>
+      <c r="B130">
+        <v>20</v>
+      </c>
+      <c r="C130" t="s">
+        <v>75</v>
+      </c>
+      <c r="D130" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>76</v>
       </c>
-      <c r="B123">
-        <f>B121*((B11*1.241/1.211-0.128)-1)</f>
+      <c r="B132">
+        <f>B130*((B11*1.241/1.211-0.128)-1)</f>
         <v>924.33017341040465</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C132" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>76</v>
       </c>
-      <c r="B124">
+      <c r="B133">
         <v>1</v>
       </c>
-      <c r="C124" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="C133" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>90</v>
       </c>
-      <c r="B126">
+      <c r="B135">
         <f>115</f>
         <v>115</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C135" t="s">
         <v>75</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D135" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>89</v>
       </c>
-      <c r="B127">
+      <c r="B136">
         <f>22.6</f>
         <v>22.6</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C136" t="s">
         <v>75</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D136" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>92</v>
       </c>
-      <c r="B128">
+      <c r="B137">
         <v>100</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C137" t="s">
         <v>93</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D137" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143">
+        <f>100*((1+4.47/(B8-6))/(1+5.593/(B8-6)))</f>
+        <v>95.240113593014883</v>
+      </c>
+      <c r="C143" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="9">
+        <f>91+3.9</f>
+        <v>94.9</v>
+      </c>
+      <c r="C144" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148">
+        <f>2.75*B144/(B8-6)</f>
+        <v>14.498611111111112</v>
+      </c>
+      <c r="C148" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>15</v>
+      </c>
+      <c r="C149" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <f>1/(1/(100-B144)-1/B149)</f>
+        <v>7.7272727272727151</v>
+      </c>
+      <c r="C151" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>151</v>
+      </c>
+      <c r="B154">
+        <f>0.2*B149</f>
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>97</v>
       </c>
-      <c r="B134">
-        <f>100*((1+4.47/(B8-6))/(1+5.593/(B8-6)))</f>
-        <v>92.304529568971418</v>
-      </c>
-      <c r="C134" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="9">
-        <v>92</v>
-      </c>
-      <c r="C135" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="B156">
+        <f>1/(1000*B154*1000)*10^6</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="C156" t="s">
         <v>98</v>
       </c>
-      <c r="B139">
-        <f>2.75*B135/(B8-6)</f>
-        <v>28.111111111111111</v>
-      </c>
-      <c r="C139" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B140">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>99</v>
-      </c>
-      <c r="B142">
-        <f>1/(1/(100-B135)-1/B140)</f>
-        <v>11.2</v>
-      </c>
-      <c r="C142" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>100</v>
-      </c>
-      <c r="B145">
-        <f>0.2*B140</f>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="C145" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>101</v>
-      </c>
-      <c r="B147">
-        <f>1/(1000*B145*1000)*10^6</f>
-        <v>0.17857142857142855</v>
-      </c>
-      <c r="C147" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B148">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B157">
         <f>0.47</f>
         <v>0.47</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C157" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>106</v>
-      </c>
-      <c r="B153">
+      <c r="B162">
         <f>0.0497/B12*1000</f>
         <v>24.85</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C162" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B154">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B163">
         <v>25</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C163" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>101</v>
+      </c>
+      <c r="B165">
+        <f>1208/(B12*1*B163/1000)/1000</f>
+        <v>24.16</v>
+      </c>
+      <c r="C165" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>25</v>
+      </c>
+      <c r="C166" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>103</v>
+      </c>
+      <c r="B168">
+        <f>24.3*B166/(B166-24.3)</f>
+        <v>867.85714285714369</v>
+      </c>
+      <c r="C168" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>145</v>
+      </c>
+      <c r="C169" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>105</v>
       </c>
-      <c r="B156">
-        <f>1208/(B12*1*B154/1000)/1000</f>
-        <v>24.16</v>
-      </c>
-      <c r="C156" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B157">
-        <v>25</v>
-      </c>
-      <c r="C157" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>107</v>
-      </c>
-      <c r="B159">
-        <f>24.3*B157/(B157-24.3)</f>
-        <v>867.85714285714369</v>
-      </c>
-      <c r="C159" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>149</v>
-      </c>
-      <c r="C160" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>109</v>
-      </c>
-      <c r="B169">
+      <c r="B178">
         <f>0.0505/(1.3*B9) * 1000</f>
         <v>4.5701357466063355</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C178" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B170">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B179">
         <v>5</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C179" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3361,8 +3591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3402,7 +3632,7 @@
         <v>94</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3425,7 +3655,7 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>48.1</v>
+        <v>46.2</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -3439,8 +3669,7 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <f>54.6</f>
-        <v>54.6</v>
+        <v>46.2</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3530,7 +3759,7 @@
       </c>
       <c r="B36">
         <f>(B10-B6)*B11/(B10*B12*1000*0.1)*10^6</f>
-        <v>84.847495738584854</v>
+        <v>82.272512965582251</v>
       </c>
       <c r="C36" t="s">
         <v>87</v>
@@ -3561,12 +3790,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3601,17 +3830,17 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B13">
         <f>150</f>
@@ -3623,7 +3852,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B14">
         <f>1.6</f>
@@ -3633,12 +3862,12 @@
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B15">
         <v>70</v>
@@ -3647,12 +3876,12 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B16">
         <f>0.56</f>
@@ -3662,20 +3891,20 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B19">
         <f>0.5</f>
@@ -3685,12 +3914,12 @@
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3699,12 +3928,12 @@
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B22">
         <f>B16*B7</f>
@@ -3716,7 +3945,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B24">
         <f>B22*B15+B8</f>
@@ -3726,12 +3955,12 @@
         <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B25">
         <f>B22*B14+B24</f>
@@ -3741,17 +3970,17 @@
         <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B35">
         <f>(B13-B8)/B22-B14-B19</f>
@@ -3761,7 +3990,7 @@
         <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3772,12 +4001,12 @@
         <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B38">
         <f>B22*B36+B8</f>
@@ -3787,12 +4016,12 @@
         <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B39">
         <f>B22*B19+B38</f>
@@ -3802,12 +4031,12 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B40">
         <f>B22*B14+B39</f>
@@ -3817,7 +4046,7 @@
         <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3839,12 +4068,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3879,20 +4108,20 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B13">
         <f>150</f>
@@ -3918,7 +4147,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B16">
         <f>0.45</f>
@@ -3928,12 +4157,12 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B19">
         <f>B16*B7</f>
@@ -3945,7 +4174,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B22">
         <f>B19*B15+B8</f>
@@ -3955,7 +4184,7 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
